--- a/lab5/Lab5.xlsx
+++ b/lab5/Lab5.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19cf05bd9d942898/Рабочий стол/ITMO/Инфа/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{2C214819-CAE8-411A-85E1-AFF4FEA4A61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C5D54B-2D06-4087-AD0C-097237EC1007}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{2C214819-CAE8-411A-85E1-AFF4FEA4A61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93950AB6-03AA-4EC5-9B97-4ED778B49395}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{F28AD061-82AC-40F0-9343-0A3A84018A0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F28AD061-82AC-40F0-9343-0A3A84018A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>A=</t>
   </si>
@@ -190,9 +192,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Флаг для 1</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
@@ -215,6 +214,78 @@
   </si>
   <si>
     <t>На какой позиции 1</t>
+  </si>
+  <si>
+    <t>=A=</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>=C=</t>
+  </si>
+  <si>
+    <t>=A+C=</t>
+  </si>
+  <si>
+    <t>=A+C+C=</t>
+  </si>
+  <si>
+    <t>=C-A=</t>
+  </si>
+  <si>
+    <t>=65536-X4=</t>
+  </si>
+  <si>
+    <t>=-X2=</t>
+  </si>
+  <si>
+    <t>=-X1=</t>
+  </si>
+  <si>
+    <t>=-X3=</t>
+  </si>
+  <si>
+    <t>=-X4=</t>
+  </si>
+  <si>
+    <t>=-X5=</t>
+  </si>
+  <si>
+    <t>=-X6=</t>
   </si>
 </sst>
 </file>
@@ -276,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -291,11 +362,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -306,6 +435,1459 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Круговая</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> диаграмма</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-3B0F-487F-9F76-79309DD88C57}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист2!$B$7:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>X1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>X8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>X9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>X10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>X11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>X12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$7:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-26440</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-39987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-25549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E031-4531-A5B9-7C89770AA378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40AE27C-9812-499A-8746-9D53929B9AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,10 +2187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7273F-3A5F-4657-8473-CADDEC98C4E3}">
-  <dimension ref="A2:AQ32"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A2:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T10" zoomScale="74" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1674,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:41" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
         <v>17</v>
       </c>
@@ -1743,31 +3326,28 @@
         <v>1</v>
       </c>
       <c r="Y19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AB19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AB19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AD19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AF19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AF19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>30</v>
       </c>
@@ -1874,20 +3454,35 @@
         <f>C5+C6</f>
         <v>26440</v>
       </c>
-      <c r="AQ20" cm="1">
-        <f t="array" ref="AQ20">IF(U20=1, U$4, IF(T20=1, T$4, IF(S20=1, S$4, IF( R20=1, R$4,  IF( Q20=1, Q$4,  IF( P20=1, P$4,  IF( O20=1, O$4,  IF( N20=1, N$4,  IF( M20=1, M$4,  IF( L20=1, L$4,  IF( K20=1, K$4,  IF( J20=1, J$4,  IF( I20=1, I$4,  IF( H20=1, H$4,  IF( G20=1, G$4,  IF( F20=1, F$4, OF))))))))))))))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH20" s="8" t="str">
+        <f>IF(W20=AF20, IF(Y20=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD20=1, IF(AND(C5&lt;0, C6&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>Результат корректный</v>
+      </c>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+    </row>
+    <row r="21" spans="4:41" x14ac:dyDescent="0.25">
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+    </row>
+    <row r="22" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>31</v>
       </c>
@@ -1967,11 +3562,11 @@
         <v>-25549</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" ref="Y21:Y32" si="15">E22</f>
+        <f t="shared" ref="Y22:Y32" si="15">E22</f>
         <v>0</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" ref="Z21:Z32" si="16">IF(MOD(SUM(N22:U22), 2)=0, 1, 0)</f>
+        <f t="shared" ref="Z22:Z32" si="16">IF(MOD(SUM(N22:U22), 2)=0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="AA22" s="5">
@@ -1979,11 +3574,11 @@
         <v>1</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" ref="AB21:AB32" si="17">IF(SUM(F22:U22)=0, 1, 0)</f>
+        <f t="shared" ref="AB22:AB32" si="17">IF(SUM(F22:U22)=0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" ref="AC21:AC32" si="18">F22</f>
+        <f t="shared" ref="AC22:AC32" si="18">F22</f>
         <v>1</v>
       </c>
       <c r="AD22" s="5">
@@ -1994,20 +3589,35 @@
         <f>C6+C7</f>
         <v>39987</v>
       </c>
-      <c r="AQ22" cm="1">
-        <f t="array" ref="AQ22">IF(U22=1, U$4, IF(T22=1, T$4, IF(S22=1, S$4, IF( R22=1, R$4,  IF( Q22=1, Q$4,  IF( P22=1, P$4,  IF( O22=1, O$4,  IF( N22=1, N$4,  IF( M22=1, M$4,  IF( L22=1, L$4,  IF( K22=1, K$4,  IF( J22=1, J$4,  IF( I22=1, I$4,  IF( H22=1, H$4,  IF( G22=1, G$4,  IF( F22=1, F$4, OF))))))))))))))))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH22" s="8" t="str">
+        <f>IF(W22=AF22, IF(Y22=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD22=1, IF(AND(C6&lt;0, C7&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ</v>
+      </c>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+    </row>
+    <row r="23" spans="4:41" x14ac:dyDescent="0.25">
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-    </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+    </row>
+    <row r="24" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>32</v>
       </c>
@@ -2114,20 +3724,35 @@
         <f>C6+C11</f>
         <v>654</v>
       </c>
-      <c r="AQ24" cm="1">
-        <f t="array" ref="AQ24">IF(U24=1, U$4, IF(T24=1, T$4, IF(S24=1, S$4, IF( R24=1, R$4,  IF( Q24=1, Q$4,  IF( P24=1, P$4,  IF( O24=1, O$4,  IF( N24=1, N$4,  IF( M24=1, M$4,  IF( L24=1, L$4,  IF( K24=1, K$4,  IF( J24=1, J$4,  IF( I24=1, I$4,  IF( H24=1, H$4,  IF( G24=1, G$4,  IF( F24=1, F$4, OF))))))))))))))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH24" s="8" t="str">
+        <f>IF(W24=AF24, IF(Y24=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD24=1, IF(AND(C6&lt;0, C11&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
+      </c>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+    </row>
+    <row r="25" spans="4:41" x14ac:dyDescent="0.25">
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-    </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+    </row>
+    <row r="26" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>33</v>
       </c>
@@ -2234,20 +3859,35 @@
         <f>C11+C12</f>
         <v>-26440</v>
       </c>
-      <c r="AQ26" cm="1">
-        <f t="array" ref="AQ26">IF(U26=1, U$4, IF(T26=1, T$4, IF(S26=1, S$4, IF( R26=1, R$4,  IF( Q26=1, Q$4,  IF( P26=1, P$4,  IF( O26=1, O$4,  IF( N26=1, N$4,  IF( M26=1, M$4,  IF( L26=1, L$4,  IF( K26=1, K$4,  IF( J26=1, J$4,  IF( I26=1, I$4,  IF( H26=1, H$4,  IF( G26=1, G$4,  IF( F26=1, F$4, OF))))))))))))))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH26" s="8" t="str">
+        <f>IF(W26=AF26, IF(Y26=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD26=1, IF(AND(C11&lt;0, C12&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
+      </c>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+    </row>
+    <row r="27" spans="4:41" x14ac:dyDescent="0.25">
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-    </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+    </row>
+    <row r="28" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>34</v>
       </c>
@@ -2354,20 +3994,35 @@
         <f>C12+C13</f>
         <v>-39987</v>
       </c>
-      <c r="AQ28" cm="1">
-        <f t="array" ref="AQ28">IF(U28=1, U$4, IF(T28=1, T$4, IF(S28=1, S$4, IF( R28=1, R$4,  IF( Q28=1, Q$4,  IF( P28=1, P$4,  IF( O28=1, O$4,  IF( N28=1, N$4,  IF( M28=1, M$4,  IF( L28=1, L$4,  IF( K28=1, K$4,  IF( J28=1, J$4,  IF( I28=1, I$4,  IF( H28=1, H$4,  IF( G28=1, G$4,  IF( F28=1, F$4, OF))))))))))))))))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH28" s="8" t="str">
+        <f>IF(W28=AF28, IF(Y28=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD28=1, IF(AND(C12&lt;0, C13&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ</v>
+      </c>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+    </row>
+    <row r="29" spans="4:41" x14ac:dyDescent="0.25">
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
-    </row>
-    <row r="30" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+    </row>
+    <row r="30" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>35</v>
       </c>
@@ -2474,20 +4129,35 @@
         <f>C5+C12</f>
         <v>-654</v>
       </c>
-      <c r="AQ30" cm="1">
-        <f t="array" ref="AQ30">IF(U30=1, U$4, IF(T30=1, T$4, IF(S30=1, S$4, IF( R30=1, R$4,  IF( Q30=1, Q$4,  IF( P30=1, P$4,  IF( O30=1, O$4,  IF( N30=1, N$4,  IF( M30=1, M$4,  IF( L30=1, L$4,  IF( K30=1, K$4,  IF( J30=1, J$4,  IF( I30=1, I$4,  IF( H30=1, H$4,  IF( G30=1, G$4,  IF( F30=1, F$4, OF))))))))))))))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH30" s="8" t="str">
+        <f>IF(W30=AF30, IF(Y30=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD30=1, IF(AND(C5&lt;0, C12&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>Результат корректный</v>
+      </c>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+    </row>
+    <row r="31" spans="4:41" x14ac:dyDescent="0.25">
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
-    </row>
-    <row r="32" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+    </row>
+    <row r="32" spans="4:41" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>36</v>
       </c>
@@ -2594,13 +4264,1322 @@
         <f>C15+C7</f>
         <v>25786</v>
       </c>
-      <c r="AQ32" cm="1">
-        <f t="array" ref="AQ32">IF(U32=1, U$4, IF(T32=1, T$4, IF(S32=1, S$4, IF( R32=1, R$4,  IF( Q32=1, Q$4,  IF( P32=1, P$4,  IF( O32=1, O$4,  IF( N32=1, N$4,  IF( M32=1, M$4,  IF( L32=1, L$4,  IF( K32=1, K$4,  IF( J32=1, J$4,  IF( I32=1, I$4,  IF( H32=1, H$4,  IF( G32=1, G$4,  IF( F32=1, F$4, OF))))))))))))))))</f>
+      <c r="AH32" s="8" t="str">
+        <f>IF(W32=AF32, IF(Y32=0, "Результат корректный", "Результат корректный. Перенос из старшего разряда не учитывается"), IF(AD32=1, IF(AND(C15&lt;0, C7&lt;0), "При сложении отрицательных чисел получили положительный результат. ПЕРЕПОЛНЕНИЕ", "При сложении положительных чисел получили отрицательный результат. ПЕРЕПОЛНЕНИЕ"), "Тут даже фиксик не поможет") )</f>
+        <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
+      </c>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+    </row>
+    <row r="33" spans="34:41" x14ac:dyDescent="0.25">
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AH30:AO31"/>
+    <mergeCell ref="AH32:AO33"/>
+    <mergeCell ref="AH20:AO21"/>
+    <mergeCell ref="AH22:AO23"/>
+    <mergeCell ref="AH24:AO25"/>
+    <mergeCell ref="AH26:AO27"/>
+    <mergeCell ref="AH28:AO29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F5:U8">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CКруглов Егор, Вар. 17
+&amp;F</oddHeader>
+    <oddFooter>&amp;C3 ‎ноября ‎2022 ‎г., ‏‎17:31:40</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83E6B0D-BC1C-4F20-B034-E6D5C19EA946}">
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="B4:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12893</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13547</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <f>C4</f>
+        <v>12893</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <f>C5</f>
+        <v>13547</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <f>C4+C5</f>
+        <v>26440</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <f>C4+C5+C5</f>
+        <v>39987</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <f>C5-C4</f>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <f>65536-D10</f>
+        <v>25549</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D18" si="0">-D7</f>
+        <v>-12893</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-13547</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-26440</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-39987</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-654</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-25549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1341F73-8BD3-4370-BBA3-7B9415F5CE84}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12893</v>
+      </c>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13547</v>
+      </c>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F4-1</f>
+        <v>15</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:U4" si="0">G4-1</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M4" s="4">
+        <f>L4-1</f>
+        <v>9</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R4" s="4">
+        <f>Q4-1</f>
+        <v>4</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="U4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>B2</f>
+        <v>12893</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f>MOD(QUOTIENT($C5, POWER(2,G$4)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:T5" si="1">MOD(QUOTIENT($C5, POWER(2,H$4)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>MOD($C5, POWER(2, U$4))</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>B3</f>
+        <v>13547</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:T10" si="2">MOD(QUOTIENT($C6, POWER(2,G$4)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U10" si="3">MOD($C6, POWER(2, U$4))</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>B2+B3</f>
+        <v>26440</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>B2+B3+B3</f>
+        <v>39987</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>B3-B2</f>
+        <v>654</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f>MOD($C9, POWER(2, U$4))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <f>65536-C8</f>
+        <v>25549</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C16" si="4">-C5</f>
+        <v>-12893</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:U16" si="5">IF(F$4&lt;=$V11, F5, MOD(F5+1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>IF(U$4&lt;=$V11, U5, MOD(U5+1, 2))</f>
+        <v>1</v>
+      </c>
+      <c r="V11" s="5" cm="1">
+        <f t="array" ref="V11">IF(U5=1,U$4, IF(T5=1, T$4, IF(S5=1, S$4, IF( R5=1, R$4,  IF( Q5=1, Q$4,  IF( P5=1, P$4,  IF( O5=1, O$4,  IF( N5=1, N$4,  IF( M5=1, M$4,  IF( L5=1, L$4,  IF( K5=1, K$4,  IF( J5=1, J$4,  IF( I5=1, I$4,  IF( H5=1, H$4,  IF( G5=1, G$4,  IF( F5=1, F$4, OF))))))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>-13547</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="5" cm="1">
+        <f t="array" ref="V12">IF(U6=1,U$4, IF(T6=1, T$4, IF(S6=1, S$4, IF( R6=1, R$4,  IF( Q6=1, Q$4,  IF( P6=1, P$4,  IF( O6=1, O$4,  IF( N6=1, N$4,  IF( M6=1, M$4,  IF( L6=1, L$4,  IF( K6=1, K$4,  IF( J6=1, J$4,  IF( I6=1, I$4,  IF( H6=1, H$4,  IF( G6=1, G$4,  IF( F6=1, F$4, OF))))))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>-26440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" cm="1">
+        <f t="array" ref="V13">IF(U7=1,U$4, IF(T7=1, T$4, IF(S7=1, S$4, IF( R7=1, R$4,  IF( Q7=1, Q$4,  IF( P7=1, P$4,  IF( O7=1, O$4,  IF( N7=1, N$4,  IF( M7=1, M$4,  IF( L7=1, L$4,  IF( K7=1, K$4,  IF( J7=1, J$4,  IF( I7=1, I$4,  IF( H7=1, H$4,  IF( G7=1, G$4,  IF( F7=1, F$4, OF))))))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>-39987</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="5" cm="1">
+        <f t="array" ref="V14">IF(U8=1,U$4, IF(T8=1, T$4, IF(S8=1, S$4, IF( R8=1, R$4,  IF( Q8=1, Q$4,  IF( P8=1, P$4,  IF( O8=1, O$4,  IF( N8=1, N$4,  IF( M8=1, M$4,  IF( L8=1, L$4,  IF( K8=1, K$4,  IF( J8=1, J$4,  IF( I8=1, I$4,  IF( H8=1, H$4,  IF( G8=1, G$4,  IF( F8=1, F$4, OF))))))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>-654</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="5" cm="1">
+        <f t="array" ref="V15">IF(U9=1,U$4, IF(T9=1, T$4, IF(S9=1, S$4, IF( R9=1, R$4,  IF( Q9=1, Q$4,  IF( P9=1, P$4,  IF( O9=1, O$4,  IF( N9=1, N$4,  IF( M9=1, M$4,  IF( L9=1, L$4,  IF( K9=1, K$4,  IF( J9=1, J$4,  IF( I9=1, I$4,  IF( H9=1, H$4,  IF( G9=1, G$4,  IF( F9=1, F$4, OF))))))))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>-25549</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="5" cm="1">
+        <f t="array" ref="V16">IF(U10=1,U$4, IF(T10=1, T$4, IF(S10=1, S$4, IF( R10=1, R$4,  IF( Q10=1, Q$4,  IF( P10=1, P$4,  IF( O10=1, O$4,  IF( N10=1, N$4,  IF( M10=1, M$4,  IF( L10=1, L$4,  IF( K10=1, K$4,  IF( J10=1, J$4,  IF( I10=1, I$4,  IF( H10=1, H$4,  IF( G10=1, G$4,  IF( F10=1, F$4, OF))))))))))))))))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F5:U8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>